--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2877,28 +2877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>746.7197980958433</v>
+        <v>871.6936085508131</v>
       </c>
       <c r="AB2" t="n">
-        <v>1021.694970707228</v>
+        <v>1192.689651627115</v>
       </c>
       <c r="AC2" t="n">
-        <v>924.1858366608272</v>
+        <v>1078.861025226262</v>
       </c>
       <c r="AD2" t="n">
-        <v>746719.7980958433</v>
+        <v>871693.6085508132</v>
       </c>
       <c r="AE2" t="n">
-        <v>1021694.970707228</v>
+        <v>1192689.651627115</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.575670186477067e-07</v>
+        <v>1.449759594241587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.62847222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>924185.8366608273</v>
+        <v>1078861.025226262</v>
       </c>
     </row>
     <row r="3">
@@ -2983,28 +2983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>532.4781378127125</v>
+        <v>626.1232443079192</v>
       </c>
       <c r="AB3" t="n">
-        <v>728.5600794328631</v>
+        <v>856.6894454701289</v>
       </c>
       <c r="AC3" t="n">
-        <v>659.0273279922835</v>
+        <v>774.9282071656474</v>
       </c>
       <c r="AD3" t="n">
-        <v>532478.1378127125</v>
+        <v>626123.2443079192</v>
       </c>
       <c r="AE3" t="n">
-        <v>728560.079432863</v>
+        <v>856689.4454701289</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.09917497210504e-06</v>
+        <v>1.858209827230011e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>659027.3279922835</v>
+        <v>774928.2071656474</v>
       </c>
     </row>
     <row r="4">
@@ -3089,28 +3089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>464.5819094939439</v>
+        <v>558.2269264805997</v>
       </c>
       <c r="AB4" t="n">
-        <v>635.6614644769332</v>
+        <v>763.7907080446508</v>
       </c>
       <c r="AC4" t="n">
-        <v>574.9948264637226</v>
+        <v>690.8955948558601</v>
       </c>
       <c r="AD4" t="n">
-        <v>464581.9094939439</v>
+        <v>558226.9264805997</v>
       </c>
       <c r="AE4" t="n">
-        <v>635661.4644769332</v>
+        <v>763790.7080446508</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.196975892304655e-06</v>
+        <v>2.023547135337584e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.92708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>574994.8264637226</v>
+        <v>690895.5948558601</v>
       </c>
     </row>
     <row r="5">
@@ -3195,28 +3195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>440.9095795099007</v>
+        <v>524.1402018005266</v>
       </c>
       <c r="AB5" t="n">
-        <v>603.2719382432729</v>
+        <v>717.1517475372148</v>
       </c>
       <c r="AC5" t="n">
-        <v>545.6965111548171</v>
+        <v>648.7077912810615</v>
       </c>
       <c r="AD5" t="n">
-        <v>440909.5795099007</v>
+        <v>524140.2018005266</v>
       </c>
       <c r="AE5" t="n">
-        <v>603271.9382432728</v>
+        <v>717151.7475372148</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.245596254303653e-06</v>
+        <v>2.105742269654547e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.26736111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>545696.5111548172</v>
+        <v>648707.7912810615</v>
       </c>
     </row>
     <row r="6">
@@ -3301,28 +3301,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>412.6936627950001</v>
+        <v>506.2533389270843</v>
       </c>
       <c r="AB6" t="n">
-        <v>564.6656761955539</v>
+        <v>692.6781526410738</v>
       </c>
       <c r="AC6" t="n">
-        <v>510.7747765727035</v>
+        <v>626.569921932902</v>
       </c>
       <c r="AD6" t="n">
-        <v>412693.6627950001</v>
+        <v>506253.3389270843</v>
       </c>
       <c r="AE6" t="n">
-        <v>564665.676195554</v>
+        <v>692678.1526410738</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.276477069917995e-06</v>
+        <v>2.157947820639349e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.87673611111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>510774.7765727035</v>
+        <v>626569.9219329021</v>
       </c>
     </row>
     <row r="7">
@@ -3407,28 +3407,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>398.5858803670748</v>
+        <v>481.9017540037214</v>
       </c>
       <c r="AB7" t="n">
-        <v>545.362785886232</v>
+        <v>659.3592398328234</v>
       </c>
       <c r="AC7" t="n">
-        <v>493.3141270227266</v>
+        <v>596.4309193996833</v>
       </c>
       <c r="AD7" t="n">
-        <v>398585.8803670748</v>
+        <v>481901.7540037214</v>
       </c>
       <c r="AE7" t="n">
-        <v>545362.785886232</v>
+        <v>659359.2398328234</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.299305065134039e-06</v>
+        <v>2.196539679190472e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.59027777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>493314.1270227266</v>
+        <v>596430.9193996832</v>
       </c>
     </row>
     <row r="8">
@@ -3513,28 +3513,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>389.9946431271317</v>
+        <v>473.1399245631861</v>
       </c>
       <c r="AB8" t="n">
-        <v>533.6078760759049</v>
+        <v>647.3709182476491</v>
       </c>
       <c r="AC8" t="n">
-        <v>482.6810893065775</v>
+        <v>585.586746400883</v>
       </c>
       <c r="AD8" t="n">
-        <v>389994.6431271317</v>
+        <v>473139.9245631861</v>
       </c>
       <c r="AE8" t="n">
-        <v>533607.8760759048</v>
+        <v>647370.9182476491</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.311792772128501e-06</v>
+        <v>2.217650767457191e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.44270833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>482681.0893065775</v>
+        <v>585586.7464008831</v>
       </c>
     </row>
     <row r="9">
@@ -3619,28 +3619,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>390.2572177883777</v>
+        <v>473.4024992244321</v>
       </c>
       <c r="AB9" t="n">
-        <v>533.967142311398</v>
+        <v>647.7301844831424</v>
       </c>
       <c r="AC9" t="n">
-        <v>483.0060676767884</v>
+        <v>585.911724771094</v>
       </c>
       <c r="AD9" t="n">
-        <v>390257.2177883777</v>
+        <v>473402.499224432</v>
       </c>
       <c r="AE9" t="n">
-        <v>533967.1423113979</v>
+        <v>647730.1844831423</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.310462306149651e-06</v>
+        <v>2.215401548707279e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.46006944444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>483006.0676767884</v>
+        <v>585911.724771094</v>
       </c>
     </row>
   </sheetData>
@@ -3916,28 +3916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>601.117907751432</v>
+        <v>711.9435618333013</v>
       </c>
       <c r="AB2" t="n">
-        <v>822.476040835951</v>
+        <v>974.1125900335543</v>
       </c>
       <c r="AC2" t="n">
-        <v>743.9800818509405</v>
+        <v>881.1446516163579</v>
       </c>
       <c r="AD2" t="n">
-        <v>601117.9077514319</v>
+        <v>711943.5618333012</v>
       </c>
       <c r="AE2" t="n">
-        <v>822476.040835951</v>
+        <v>974112.5900335542</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.913572207996916e-07</v>
+        <v>1.716823520184339e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.14583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>743980.0818509405</v>
+        <v>881144.651616358</v>
       </c>
     </row>
     <row r="3">
@@ -4022,28 +4022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>451.3866350830097</v>
+        <v>542.0311534771587</v>
       </c>
       <c r="AB3" t="n">
-        <v>617.607107893471</v>
+        <v>741.6309369142652</v>
       </c>
       <c r="AC3" t="n">
-        <v>558.6635523331374</v>
+        <v>670.8507211807243</v>
       </c>
       <c r="AD3" t="n">
-        <v>451386.6350830097</v>
+        <v>542031.1534771586</v>
       </c>
       <c r="AE3" t="n">
-        <v>617607.107893471</v>
+        <v>741630.9369142653</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.212321511708158e-06</v>
+        <v>2.099487492154498e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.29166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>558663.5523331375</v>
+        <v>670850.7211807243</v>
       </c>
     </row>
     <row r="4">
@@ -4128,28 +4128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>404.1761438604256</v>
+        <v>484.8154352652861</v>
       </c>
       <c r="AB4" t="n">
-        <v>553.011631022854</v>
+        <v>663.3458670774412</v>
       </c>
       <c r="AC4" t="n">
-        <v>500.232977114731</v>
+        <v>600.0370685353413</v>
       </c>
       <c r="AD4" t="n">
-        <v>404176.1438604256</v>
+        <v>484815.4352652861</v>
       </c>
       <c r="AE4" t="n">
-        <v>553011.631022854</v>
+        <v>663345.8670774412</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.299200488725823e-06</v>
+        <v>2.249943723293023e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.13715277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>500232.977114731</v>
+        <v>600037.0685353413</v>
       </c>
     </row>
     <row r="5">
@@ -4234,28 +4234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>371.6953700725047</v>
+        <v>452.4199128233858</v>
       </c>
       <c r="AB5" t="n">
-        <v>508.5700033756138</v>
+        <v>619.0208840828503</v>
       </c>
       <c r="AC5" t="n">
-        <v>460.0327960359272</v>
+        <v>559.9423997072497</v>
       </c>
       <c r="AD5" t="n">
-        <v>371695.3700725047</v>
+        <v>452419.9128233858</v>
       </c>
       <c r="AE5" t="n">
-        <v>508570.0033756138</v>
+        <v>619020.8840828503</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.344861451911039e-06</v>
+        <v>2.329018968730196e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.58159722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>460032.7960359271</v>
+        <v>559942.3997072497</v>
       </c>
     </row>
     <row r="6">
@@ -4340,28 +4340,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>360.9366208804303</v>
+        <v>441.4905714307192</v>
       </c>
       <c r="AB6" t="n">
-        <v>493.8494080885019</v>
+        <v>604.0668770208914</v>
       </c>
       <c r="AC6" t="n">
-        <v>446.7171137025319</v>
+        <v>546.4155820912034</v>
       </c>
       <c r="AD6" t="n">
-        <v>360936.6208804303</v>
+        <v>441490.5714307192</v>
       </c>
       <c r="AE6" t="n">
-        <v>493849.4080885019</v>
+        <v>604066.8770208914</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.362874713960839e-06</v>
+        <v>2.360214173963475e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.38194444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>446717.1137025319</v>
+        <v>546415.5820912034</v>
       </c>
     </row>
     <row r="7">
@@ -4446,28 +4446,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>360.8124527672585</v>
+        <v>441.3664033175474</v>
       </c>
       <c r="AB7" t="n">
-        <v>493.6795157981496</v>
+        <v>603.8969847305391</v>
       </c>
       <c r="AC7" t="n">
-        <v>446.5634356939256</v>
+        <v>546.2619040825971</v>
       </c>
       <c r="AD7" t="n">
-        <v>360812.4527672586</v>
+        <v>441366.4033175474</v>
       </c>
       <c r="AE7" t="n">
-        <v>493679.5157981496</v>
+        <v>603896.9847305391</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.362102027116879e-06</v>
+        <v>2.358876041835506e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.390625</v>
       </c>
       <c r="AH7" t="n">
-        <v>446563.4356939256</v>
+        <v>546261.9040825971</v>
       </c>
     </row>
   </sheetData>
@@ -4743,28 +4743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>322.8386800374827</v>
+        <v>404.7916296973494</v>
       </c>
       <c r="AB2" t="n">
-        <v>441.7221246646533</v>
+        <v>553.853765898252</v>
       </c>
       <c r="AC2" t="n">
-        <v>399.5647850475537</v>
+        <v>500.9947398195648</v>
       </c>
       <c r="AD2" t="n">
-        <v>322838.6800374828</v>
+        <v>404791.6296973494</v>
       </c>
       <c r="AE2" t="n">
-        <v>441722.1246646533</v>
+        <v>553853.765898252</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.415661345729851e-06</v>
+        <v>2.678735901888837e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.51909722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>399564.7850475537</v>
+        <v>500994.7398195647</v>
       </c>
     </row>
     <row r="3">
@@ -4849,28 +4849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>289.4191069669035</v>
+        <v>362.3420318686263</v>
       </c>
       <c r="AB3" t="n">
-        <v>395.9959904219785</v>
+        <v>495.7723534049087</v>
       </c>
       <c r="AC3" t="n">
-        <v>358.2026888799673</v>
+        <v>448.4565358168116</v>
       </c>
       <c r="AD3" t="n">
-        <v>289419.1069669035</v>
+        <v>362342.0318686264</v>
       </c>
       <c r="AE3" t="n">
-        <v>395995.9904219785</v>
+        <v>495772.3534049087</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.499672538436226e-06</v>
+        <v>2.837703156834297e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.59895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>358202.6888799673</v>
+        <v>448456.5358168116</v>
       </c>
     </row>
   </sheetData>
@@ -5146,28 +5146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>405.4651300830387</v>
+        <v>500.26075616362</v>
       </c>
       <c r="AB2" t="n">
-        <v>554.775278838692</v>
+        <v>684.4788365300091</v>
       </c>
       <c r="AC2" t="n">
-        <v>501.8283048583206</v>
+        <v>619.1531370436651</v>
       </c>
       <c r="AD2" t="n">
-        <v>405465.1300830387</v>
+        <v>500260.75616362</v>
       </c>
       <c r="AE2" t="n">
-        <v>554775.278838692</v>
+        <v>684478.8365300091</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.245490289813319e-06</v>
+        <v>2.269012818960092e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.96875</v>
       </c>
       <c r="AH2" t="n">
-        <v>501828.3048583206</v>
+        <v>619153.137043665</v>
       </c>
     </row>
     <row r="3">
@@ -5252,28 +5252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>325.7493121701519</v>
+        <v>401.7223584019316</v>
       </c>
       <c r="AB3" t="n">
-        <v>445.7045799565984</v>
+        <v>549.6542535051683</v>
       </c>
       <c r="AC3" t="n">
-        <v>403.1671603958466</v>
+        <v>497.1960229952242</v>
       </c>
       <c r="AD3" t="n">
-        <v>325749.3121701519</v>
+        <v>401722.3584019316</v>
       </c>
       <c r="AE3" t="n">
-        <v>445704.5799565983</v>
+        <v>549654.2535051682</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.424352789472141e-06</v>
+        <v>2.594861448914439e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.71180555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>403167.1603958466</v>
+        <v>497196.0229952242</v>
       </c>
     </row>
     <row r="4">
@@ -5358,28 +5358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>315.2873830850214</v>
+        <v>391.0898371162089</v>
       </c>
       <c r="AB4" t="n">
-        <v>431.3901070345859</v>
+        <v>535.1063688083088</v>
       </c>
       <c r="AC4" t="n">
-        <v>390.2188406790222</v>
+        <v>484.0365679957487</v>
       </c>
       <c r="AD4" t="n">
-        <v>315287.3830850214</v>
+        <v>391089.8371162089</v>
       </c>
       <c r="AE4" t="n">
-        <v>431390.1070345859</v>
+        <v>535106.3688083088</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.454356529146859e-06</v>
+        <v>2.64952174654621e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.38194444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>390218.8406790221</v>
+        <v>484036.5679957487</v>
       </c>
     </row>
   </sheetData>
@@ -5655,28 +5655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>271.1134959402748</v>
+        <v>350.1666639347375</v>
       </c>
       <c r="AB2" t="n">
-        <v>370.9494458287833</v>
+        <v>479.1134778584379</v>
       </c>
       <c r="AC2" t="n">
-        <v>335.5465513497005</v>
+        <v>433.3875599716173</v>
       </c>
       <c r="AD2" t="n">
-        <v>271113.4959402748</v>
+        <v>350166.6639347374</v>
       </c>
       <c r="AE2" t="n">
-        <v>370949.4458287833</v>
+        <v>479113.4778584379</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.519730348367606e-06</v>
+        <v>2.978181824971533e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.98090277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>335546.5513497005</v>
+        <v>433387.5599716173</v>
       </c>
     </row>
     <row r="3">
@@ -5761,28 +5761,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>271.4831777910715</v>
+        <v>350.5363457855341</v>
       </c>
       <c r="AB3" t="n">
-        <v>371.4552608462555</v>
+        <v>479.6192928759102</v>
       </c>
       <c r="AC3" t="n">
-        <v>336.004092091821</v>
+        <v>433.8451007137378</v>
       </c>
       <c r="AD3" t="n">
-        <v>271483.1777910715</v>
+        <v>350536.3457855341</v>
       </c>
       <c r="AE3" t="n">
-        <v>371455.2608462555</v>
+        <v>479619.2928759102</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.52250071929801e-06</v>
+        <v>2.983610859380316e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.95486111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>336004.092091821</v>
+        <v>433845.1007137378</v>
       </c>
     </row>
   </sheetData>
@@ -6058,28 +6058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>631.0247201201852</v>
+        <v>742.9574915103622</v>
       </c>
       <c r="AB2" t="n">
-        <v>863.3958609143225</v>
+        <v>1016.547216855721</v>
       </c>
       <c r="AC2" t="n">
-        <v>780.9945717323604</v>
+        <v>919.5293772119899</v>
       </c>
       <c r="AD2" t="n">
-        <v>631024.7201201852</v>
+        <v>742957.4915103621</v>
       </c>
       <c r="AE2" t="n">
-        <v>863395.8609143225</v>
+        <v>1016547.216855721</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.55028656636963e-07</v>
+        <v>1.643108856166651e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.75347222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>780994.5717323604</v>
+        <v>919529.3772119898</v>
       </c>
     </row>
     <row r="3">
@@ -6164,28 +6164,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>468.0969436147375</v>
+        <v>559.6783020248823</v>
       </c>
       <c r="AB3" t="n">
-        <v>640.470889233364</v>
+        <v>765.7765440945082</v>
       </c>
       <c r="AC3" t="n">
-        <v>579.3452464714697</v>
+        <v>692.6919055002573</v>
       </c>
       <c r="AD3" t="n">
-        <v>468096.9436147375</v>
+        <v>559678.3020248823</v>
       </c>
       <c r="AE3" t="n">
-        <v>640470.889233364</v>
+        <v>765776.5440945082</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.183029484510603e-06</v>
+        <v>2.035379995769654e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.56076388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>579345.2464714698</v>
+        <v>692691.9055002574</v>
       </c>
     </row>
     <row r="4">
@@ -6270,28 +6270,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>419.3974845851317</v>
+        <v>500.7178851592399</v>
       </c>
       <c r="AB4" t="n">
-        <v>573.8381409205563</v>
+        <v>685.1043005889239</v>
       </c>
       <c r="AC4" t="n">
-        <v>519.0718341379868</v>
+        <v>619.7189076906412</v>
       </c>
       <c r="AD4" t="n">
-        <v>419397.4845851317</v>
+        <v>500717.8851592399</v>
       </c>
       <c r="AE4" t="n">
-        <v>573838.1409205563</v>
+        <v>685104.300588924</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.27202351041972e-06</v>
+        <v>2.188492544907307e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>519071.8341379868</v>
+        <v>619718.9076906412</v>
       </c>
     </row>
     <row r="5">
@@ -6376,28 +6376,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>386.9525825729796</v>
+        <v>468.3582344931083</v>
       </c>
       <c r="AB5" t="n">
-        <v>529.445594619474</v>
+        <v>640.8283989404911</v>
       </c>
       <c r="AC5" t="n">
-        <v>478.9160501505497</v>
+        <v>579.6686359539166</v>
       </c>
       <c r="AD5" t="n">
-        <v>386952.5825729796</v>
+        <v>468358.2344931083</v>
       </c>
       <c r="AE5" t="n">
-        <v>529445.594619474</v>
+        <v>640828.398940491</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.317800754723066e-06</v>
+        <v>2.267251433452705e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.76388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>478916.0501505497</v>
+        <v>579668.6359539166</v>
       </c>
     </row>
     <row r="6">
@@ -6482,28 +6482,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>370.641269375789</v>
+        <v>451.8763290953254</v>
       </c>
       <c r="AB6" t="n">
-        <v>507.1277362987266</v>
+        <v>618.2771288448967</v>
       </c>
       <c r="AC6" t="n">
-        <v>458.7281769046236</v>
+        <v>559.2696274253393</v>
       </c>
       <c r="AD6" t="n">
-        <v>370641.269375789</v>
+        <v>451876.3290953254</v>
       </c>
       <c r="AE6" t="n">
-        <v>507127.7362987266</v>
+        <v>618277.1288448967</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.344912943847839e-06</v>
+        <v>2.31389744533035e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.44270833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>458728.1769046236</v>
+        <v>559269.6274253393</v>
       </c>
     </row>
     <row r="7">
@@ -6588,28 +6588,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>367.3181883552616</v>
+        <v>448.5532480747981</v>
       </c>
       <c r="AB7" t="n">
-        <v>502.5809502424532</v>
+        <v>613.7303427886233</v>
       </c>
       <c r="AC7" t="n">
-        <v>454.6153297281066</v>
+        <v>555.1567802488224</v>
       </c>
       <c r="AD7" t="n">
-        <v>367318.1883552616</v>
+        <v>448553.2480747981</v>
       </c>
       <c r="AE7" t="n">
-        <v>502580.9502424533</v>
+        <v>613730.3427886233</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.348885250462765e-06</v>
+        <v>2.320731724210923e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.39930555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>454615.3297281066</v>
+        <v>555156.7802488224</v>
       </c>
     </row>
     <row r="8">
@@ -6694,28 +6694,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>368.7204222917082</v>
+        <v>449.9554820112446</v>
       </c>
       <c r="AB8" t="n">
-        <v>504.4995485764946</v>
+        <v>615.6489411226646</v>
       </c>
       <c r="AC8" t="n">
-        <v>456.3508197299167</v>
+        <v>556.8922702506327</v>
       </c>
       <c r="AD8" t="n">
-        <v>368720.4222917082</v>
+        <v>449955.4820112446</v>
       </c>
       <c r="AE8" t="n">
-        <v>504499.5485764946</v>
+        <v>615648.9411226646</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.348143434167207e-06</v>
+        <v>2.319455443215153e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.40798611111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>456350.8197299167</v>
+        <v>556892.2702506327</v>
       </c>
     </row>
   </sheetData>
@@ -6991,28 +6991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>268.0983780511818</v>
+        <v>336.9529305685314</v>
       </c>
       <c r="AB2" t="n">
-        <v>366.8240285153128</v>
+        <v>461.0338649180212</v>
       </c>
       <c r="AC2" t="n">
-        <v>331.8148580745681</v>
+        <v>417.0334399153379</v>
       </c>
       <c r="AD2" t="n">
-        <v>268098.3780511818</v>
+        <v>336952.9305685314</v>
       </c>
       <c r="AE2" t="n">
-        <v>366824.0285153128</v>
+        <v>461033.8649180211</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.526053782998936e-06</v>
+        <v>3.059219551347858e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.29340277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>331814.8580745681</v>
+        <v>417033.4399153378</v>
       </c>
     </row>
   </sheetData>
@@ -7288,28 +7288,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>499.9117244371668</v>
+        <v>597.8836496797242</v>
       </c>
       <c r="AB2" t="n">
-        <v>684.0012759236827</v>
+        <v>818.0507862568446</v>
       </c>
       <c r="AC2" t="n">
-        <v>618.7211541513458</v>
+        <v>739.9771673579802</v>
       </c>
       <c r="AD2" t="n">
-        <v>499911.7244371668</v>
+        <v>597883.6496797241</v>
       </c>
       <c r="AE2" t="n">
-        <v>684001.2759236827</v>
+        <v>818050.7862568446</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.107708093361785e-06</v>
+        <v>1.961833343698102e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.49652777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>618721.1541513458</v>
+        <v>739977.1673579802</v>
       </c>
     </row>
     <row r="3">
@@ -7394,28 +7394,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>388.8118270431336</v>
+        <v>467.2405896516326</v>
       </c>
       <c r="AB3" t="n">
-        <v>531.9894949276156</v>
+        <v>639.2991879613735</v>
       </c>
       <c r="AC3" t="n">
-        <v>481.2171641836688</v>
+        <v>578.2853707243847</v>
       </c>
       <c r="AD3" t="n">
-        <v>388811.8270431336</v>
+        <v>467240.5896516326</v>
       </c>
       <c r="AE3" t="n">
-        <v>531989.4949276156</v>
+        <v>639299.1879613735</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.311685603917052e-06</v>
+        <v>2.323092671827933e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.46701388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>481217.1641836688</v>
+        <v>578285.3707243848</v>
       </c>
     </row>
     <row r="4">
@@ -7500,28 +7500,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>346.7644663073195</v>
+        <v>425.2784802618391</v>
       </c>
       <c r="AB4" t="n">
-        <v>474.4584409702385</v>
+        <v>581.8847786566456</v>
       </c>
       <c r="AC4" t="n">
-        <v>429.1767932706423</v>
+        <v>526.3505120620706</v>
       </c>
       <c r="AD4" t="n">
-        <v>346764.4663073195</v>
+        <v>425278.4802618391</v>
       </c>
       <c r="AE4" t="n">
-        <v>474458.4409702385</v>
+        <v>581884.7786566456</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.387937716351726e-06</v>
+        <v>2.458140829007824e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>429176.7932706423</v>
+        <v>526350.5120620707</v>
       </c>
     </row>
     <row r="5">
@@ -7606,28 +7606,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>338.469661001496</v>
+        <v>416.8130827554234</v>
       </c>
       <c r="AB5" t="n">
-        <v>463.1091224098275</v>
+        <v>570.3020483213875</v>
       </c>
       <c r="AC5" t="n">
-        <v>418.9106377447683</v>
+        <v>515.8732212535456</v>
       </c>
       <c r="AD5" t="n">
-        <v>338469.661001496</v>
+        <v>416813.0827554234</v>
       </c>
       <c r="AE5" t="n">
-        <v>463109.1224098275</v>
+        <v>570302.0483213875</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.406248174672092e-06</v>
+        <v>2.490570011286585e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.35590277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>418910.6377447683</v>
+        <v>515873.2212535456</v>
       </c>
     </row>
     <row r="6">
@@ -7712,28 +7712,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>339.2413294912718</v>
+        <v>417.5847512451992</v>
       </c>
       <c r="AB6" t="n">
-        <v>464.1649532811499</v>
+        <v>571.3578791927099</v>
       </c>
       <c r="AC6" t="n">
-        <v>419.8657015995997</v>
+        <v>516.8282851083769</v>
       </c>
       <c r="AD6" t="n">
-        <v>339241.3294912718</v>
+        <v>417584.7512451992</v>
       </c>
       <c r="AE6" t="n">
-        <v>464164.9532811499</v>
+        <v>571357.8791927099</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.404606204224885e-06</v>
+        <v>2.487661959614848e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.37326388888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>419865.7015995997</v>
+        <v>516828.2851083769</v>
       </c>
     </row>
   </sheetData>
@@ -8009,28 +8009,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>563.9998649745343</v>
+        <v>673.9386327520446</v>
       </c>
       <c r="AB2" t="n">
-        <v>771.6894971761235</v>
+        <v>922.1125694054408</v>
       </c>
       <c r="AC2" t="n">
-        <v>698.0405346386452</v>
+        <v>834.1074399745042</v>
       </c>
       <c r="AD2" t="n">
-        <v>563999.8649745343</v>
+        <v>673938.6327520446</v>
       </c>
       <c r="AE2" t="n">
-        <v>771689.4971761236</v>
+        <v>922112.5694054408</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.02722129632927e-06</v>
+        <v>1.791384244651952e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.59895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>698040.5346386452</v>
+        <v>834107.4399745043</v>
       </c>
     </row>
     <row r="3">
@@ -8115,28 +8115,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>433.6744168601538</v>
+        <v>513.6920399193099</v>
       </c>
       <c r="AB3" t="n">
-        <v>593.3724695130405</v>
+        <v>702.8561115109635</v>
       </c>
       <c r="AC3" t="n">
-        <v>536.7418338262066</v>
+        <v>635.7765106931045</v>
       </c>
       <c r="AD3" t="n">
-        <v>433674.4168601538</v>
+        <v>513692.0399193099</v>
       </c>
       <c r="AE3" t="n">
-        <v>593372.4695130405</v>
+        <v>702856.1115109635</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.243897931982693e-06</v>
+        <v>2.169249377200093e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.01388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>536741.8338262066</v>
+        <v>635776.5106931045</v>
       </c>
     </row>
     <row r="4">
@@ -8221,28 +8221,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>378.7297904820279</v>
+        <v>468.5788340173154</v>
       </c>
       <c r="AB4" t="n">
-        <v>518.1948077166495</v>
+        <v>641.1302329416754</v>
       </c>
       <c r="AC4" t="n">
-        <v>468.7390225591521</v>
+        <v>579.9416633416545</v>
       </c>
       <c r="AD4" t="n">
-        <v>378729.7904820279</v>
+        <v>468578.8340173154</v>
       </c>
       <c r="AE4" t="n">
-        <v>518194.8077166495</v>
+        <v>641130.2329416755</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.327165722216925e-06</v>
+        <v>2.314461132491402e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.94618055555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>468739.0225591522</v>
+        <v>579941.6633416545</v>
       </c>
     </row>
     <row r="5">
@@ -8327,28 +8327,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>358.7117315415888</v>
+        <v>438.5586728916018</v>
       </c>
       <c r="AB5" t="n">
-        <v>490.8052163399087</v>
+        <v>600.0553240934361</v>
       </c>
       <c r="AC5" t="n">
-        <v>443.9634553418746</v>
+        <v>542.7868861448947</v>
       </c>
       <c r="AD5" t="n">
-        <v>358711.7315415888</v>
+        <v>438558.6728916017</v>
       </c>
       <c r="AE5" t="n">
-        <v>490805.2163399087</v>
+        <v>600055.3240934361</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.367897712111949e-06</v>
+        <v>2.385494166183374e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.46875</v>
       </c>
       <c r="AH5" t="n">
-        <v>443963.4553418746</v>
+        <v>542786.8861448946</v>
       </c>
     </row>
     <row r="6">
@@ -8433,28 +8433,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>352.7027727212591</v>
+        <v>432.5497140712719</v>
       </c>
       <c r="AB6" t="n">
-        <v>482.5834937853799</v>
+        <v>591.8336015389073</v>
       </c>
       <c r="AC6" t="n">
-        <v>436.5264024486899</v>
+        <v>535.34983325171</v>
       </c>
       <c r="AD6" t="n">
-        <v>352702.772721259</v>
+        <v>432549.7140712719</v>
       </c>
       <c r="AE6" t="n">
-        <v>482583.4937853799</v>
+        <v>591833.6015389073</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.378476816608921e-06</v>
+        <v>2.403943200667106e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.34722222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>436526.4024486899</v>
+        <v>535349.83325171</v>
       </c>
     </row>
     <row r="7">
@@ -8539,28 +8539,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>353.8096859160258</v>
+        <v>433.6566272660387</v>
       </c>
       <c r="AB7" t="n">
-        <v>484.0980212520234</v>
+        <v>593.3481290055508</v>
       </c>
       <c r="AC7" t="n">
-        <v>437.8963855395697</v>
+        <v>536.7198163425896</v>
       </c>
       <c r="AD7" t="n">
-        <v>353809.6859160258</v>
+        <v>433656.6272660387</v>
       </c>
       <c r="AE7" t="n">
-        <v>484098.0212520234</v>
+        <v>593348.1290055509</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.377672414654082e-06</v>
+        <v>2.402540393897606e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.35590277777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>437896.3855395697</v>
+        <v>536719.8163425897</v>
       </c>
     </row>
   </sheetData>
@@ -8836,28 +8836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>702.3611374087441</v>
+        <v>826.3249004403646</v>
       </c>
       <c r="AB2" t="n">
-        <v>961.0014941891455</v>
+        <v>1130.614183664258</v>
       </c>
       <c r="AC2" t="n">
-        <v>869.284860357801</v>
+        <v>1022.709952802314</v>
       </c>
       <c r="AD2" t="n">
-        <v>702361.1374087441</v>
+        <v>826324.9004403646</v>
       </c>
       <c r="AE2" t="n">
-        <v>961001.4941891455</v>
+        <v>1130614.183664259</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.89362227488069e-07</v>
+        <v>1.51185684302187e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.96875</v>
       </c>
       <c r="AH2" t="n">
-        <v>869284.860357801</v>
+        <v>1022709.952802314</v>
       </c>
     </row>
     <row r="3">
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>513.7323291295148</v>
+        <v>606.6839056981386</v>
       </c>
       <c r="AB3" t="n">
-        <v>702.9112369858003</v>
+        <v>830.0916847811342</v>
       </c>
       <c r="AC3" t="n">
-        <v>635.8263750699921</v>
+        <v>750.8688994266187</v>
       </c>
       <c r="AD3" t="n">
-        <v>513732.3291295149</v>
+        <v>606683.9056981385</v>
       </c>
       <c r="AE3" t="n">
-        <v>702911.2369858003</v>
+        <v>830091.6847811341</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.126125510430197e-06</v>
+        <v>1.914338732210469e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.13368055555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>635826.375069992</v>
+        <v>750868.8994266187</v>
       </c>
     </row>
     <row r="4">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>452.0851837301398</v>
+        <v>545.0366707902125</v>
       </c>
       <c r="AB4" t="n">
-        <v>618.5628929702658</v>
+        <v>745.7432182960513</v>
       </c>
       <c r="AC4" t="n">
-        <v>559.5281186236557</v>
+        <v>674.5705321990558</v>
       </c>
       <c r="AD4" t="n">
-        <v>452085.1837301398</v>
+        <v>545036.6707902125</v>
       </c>
       <c r="AE4" t="n">
-        <v>618562.8929702658</v>
+        <v>745743.2182960513</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.216002857229256e-06</v>
+        <v>2.067124265023791e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>559528.1186236558</v>
+        <v>674570.5321990559</v>
       </c>
     </row>
     <row r="5">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>425.2205532577233</v>
+        <v>507.8347045024977</v>
       </c>
       <c r="AB5" t="n">
-        <v>581.8055203740553</v>
+        <v>694.8418467862799</v>
       </c>
       <c r="AC5" t="n">
-        <v>526.2788180787311</v>
+        <v>628.5271161456534</v>
       </c>
       <c r="AD5" t="n">
-        <v>425220.5532577233</v>
+        <v>507834.7045024977</v>
       </c>
       <c r="AE5" t="n">
-        <v>581805.5203740553</v>
+        <v>694841.8467862799</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.269882209106179e-06</v>
+        <v>2.158715592286227e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.08506944444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>526278.8180787311</v>
+        <v>628527.1161456534</v>
       </c>
     </row>
     <row r="6">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>396.7913402579964</v>
+        <v>479.4907428487912</v>
       </c>
       <c r="AB6" t="n">
-        <v>542.9074169394688</v>
+        <v>656.0603880043427</v>
       </c>
       <c r="AC6" t="n">
-        <v>491.0930950421105</v>
+        <v>593.4469053597451</v>
       </c>
       <c r="AD6" t="n">
-        <v>396791.3402579963</v>
+        <v>479490.7428487912</v>
       </c>
       <c r="AE6" t="n">
-        <v>542907.4169394688</v>
+        <v>656060.3880043427</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.302468629346151e-06</v>
+        <v>2.21411034698425e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.67708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>491093.0950421105</v>
+        <v>593446.905359745</v>
       </c>
     </row>
     <row r="7">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>385.3687094937153</v>
+        <v>467.8975198839179</v>
       </c>
       <c r="AB7" t="n">
-        <v>527.2784695968759</v>
+        <v>640.1980288869028</v>
       </c>
       <c r="AC7" t="n">
-        <v>476.9557524985291</v>
+        <v>579.0984275335127</v>
       </c>
       <c r="AD7" t="n">
-        <v>385368.7094937153</v>
+        <v>467897.5198839179</v>
       </c>
       <c r="AE7" t="n">
-        <v>527278.4695968758</v>
+        <v>640198.0288869027</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.318961828326816e-06</v>
+        <v>2.242147692141878e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.48611111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>476955.7524985292</v>
+        <v>579098.4275335127</v>
       </c>
     </row>
     <row r="8">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>382.2722610293952</v>
+        <v>464.8010714195978</v>
       </c>
       <c r="AB8" t="n">
-        <v>523.0417722023279</v>
+        <v>635.9613314923546</v>
       </c>
       <c r="AC8" t="n">
-        <v>473.1233995570748</v>
+        <v>575.2660745920583</v>
       </c>
       <c r="AD8" t="n">
-        <v>382272.2610293952</v>
+        <v>464801.0714195978</v>
       </c>
       <c r="AE8" t="n">
-        <v>523041.7722023279</v>
+        <v>635961.3314923546</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.321173469844909e-06</v>
+        <v>2.245907336143044e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.46006944444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>473123.3995570748</v>
+        <v>575266.0745920583</v>
       </c>
     </row>
     <row r="9">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>383.4059214760354</v>
+        <v>465.9347318662381</v>
       </c>
       <c r="AB9" t="n">
-        <v>524.5928964389902</v>
+        <v>637.512455729017</v>
       </c>
       <c r="AC9" t="n">
-        <v>474.5264866736065</v>
+        <v>576.6691617085901</v>
       </c>
       <c r="AD9" t="n">
-        <v>383405.9214760354</v>
+        <v>465934.7318662381</v>
       </c>
       <c r="AE9" t="n">
-        <v>524592.8964389903</v>
+        <v>637512.455729017</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.321055829338627e-06</v>
+        <v>2.245707355079152e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.46006944444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>474526.4866736066</v>
+        <v>576669.1617085901</v>
       </c>
     </row>
   </sheetData>
@@ -9875,28 +9875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>439.7196713750481</v>
+        <v>526.1077372794135</v>
       </c>
       <c r="AB2" t="n">
-        <v>601.6438534381257</v>
+        <v>719.8438163809669</v>
       </c>
       <c r="AC2" t="n">
-        <v>544.2238084784419</v>
+        <v>651.1429328527082</v>
       </c>
       <c r="AD2" t="n">
-        <v>439719.6713750481</v>
+        <v>526107.7372794135</v>
       </c>
       <c r="AE2" t="n">
-        <v>601643.8534381257</v>
+        <v>719843.8163809669</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.196328907098657e-06</v>
+        <v>2.157264118702628e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.47222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>544223.8084784419</v>
+        <v>651142.9328527083</v>
       </c>
     </row>
     <row r="3">
@@ -9981,28 +9981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>344.4431113256262</v>
+        <v>430.7457468668688</v>
       </c>
       <c r="AB3" t="n">
-        <v>471.2822606733317</v>
+        <v>589.3653340244267</v>
       </c>
       <c r="AC3" t="n">
-        <v>426.3037431634753</v>
+        <v>533.1171337245763</v>
       </c>
       <c r="AD3" t="n">
-        <v>344443.1113256262</v>
+        <v>430745.7468668689</v>
       </c>
       <c r="AE3" t="n">
-        <v>471282.2606733317</v>
+        <v>589365.3340244268</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.384712529256895e-06</v>
+        <v>2.496964368543439e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.95486111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>426303.7431634753</v>
+        <v>533117.1337245763</v>
       </c>
     </row>
     <row r="4">
@@ -10087,28 +10087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>323.3400363575674</v>
+        <v>400.0346150462071</v>
       </c>
       <c r="AB4" t="n">
-        <v>442.4081025000729</v>
+        <v>547.3450085878842</v>
       </c>
       <c r="AC4" t="n">
-        <v>400.1852941211368</v>
+        <v>495.1071691718001</v>
       </c>
       <c r="AD4" t="n">
-        <v>323340.0363575674</v>
+        <v>400034.6150462071</v>
       </c>
       <c r="AE4" t="n">
-        <v>442408.1025000729</v>
+        <v>547345.0085878843</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.436281941294807e-06</v>
+        <v>2.589956221830492e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.38194444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>400185.2941211368</v>
+        <v>495107.1691718001</v>
       </c>
     </row>
     <row r="5">
@@ -10193,28 +10193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>323.368291452393</v>
+        <v>400.0628701410326</v>
       </c>
       <c r="AB5" t="n">
-        <v>442.4467623673401</v>
+        <v>547.3836684551512</v>
       </c>
       <c r="AC5" t="n">
-        <v>400.2202643449314</v>
+        <v>495.1421393955947</v>
       </c>
       <c r="AD5" t="n">
-        <v>323368.2914523929</v>
+        <v>400062.8701410326</v>
       </c>
       <c r="AE5" t="n">
-        <v>442446.76236734</v>
+        <v>547383.6684551513</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.438114615365256e-06</v>
+        <v>2.593260966863399e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.36458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>400220.2643449313</v>
+        <v>495142.1393955947</v>
       </c>
     </row>
   </sheetData>
@@ -10490,28 +10490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>357.0214570092402</v>
+        <v>431.0353105136012</v>
       </c>
       <c r="AB2" t="n">
-        <v>488.4925081550998</v>
+        <v>589.7615277805326</v>
       </c>
       <c r="AC2" t="n">
-        <v>441.8714687803175</v>
+        <v>533.4755153046607</v>
       </c>
       <c r="AD2" t="n">
-        <v>357021.4570092402</v>
+        <v>431035.3105136012</v>
       </c>
       <c r="AE2" t="n">
-        <v>488492.5081550998</v>
+        <v>589761.5277805326</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.352262382961491e-06</v>
+        <v>2.522889365755707e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.02256944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>441871.4687803175</v>
+        <v>533475.5153046607</v>
       </c>
     </row>
     <row r="3">
@@ -10596,28 +10596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>299.1312201940331</v>
+        <v>373.1449841898431</v>
       </c>
       <c r="AB3" t="n">
-        <v>409.2845322075331</v>
+        <v>510.5534293634174</v>
       </c>
       <c r="AC3" t="n">
-        <v>370.2229908880941</v>
+        <v>461.8269266312107</v>
       </c>
       <c r="AD3" t="n">
-        <v>299131.2201940331</v>
+        <v>373144.9841898431</v>
       </c>
       <c r="AE3" t="n">
-        <v>409284.5322075331</v>
+        <v>510553.4293634174</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.482713372631704e-06</v>
+        <v>2.766269214768827e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.52083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>370222.9908880941</v>
+        <v>461826.9266312107</v>
       </c>
     </row>
     <row r="4">
@@ -10702,28 +10702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>299.3513974179014</v>
+        <v>373.1945692131192</v>
       </c>
       <c r="AB4" t="n">
-        <v>409.5857883987633</v>
+        <v>510.6212737798006</v>
       </c>
       <c r="AC4" t="n">
-        <v>370.495495611249</v>
+        <v>461.8882960717146</v>
       </c>
       <c r="AD4" t="n">
-        <v>299351.3974179014</v>
+        <v>373194.5692131192</v>
       </c>
       <c r="AE4" t="n">
-        <v>409585.7883987633</v>
+        <v>510621.2737798006</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.485232243367207e-06</v>
+        <v>2.770968622422535e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.49479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>370495.495611249</v>
+        <v>461888.2960717146</v>
       </c>
     </row>
   </sheetData>
@@ -18908,28 +18908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>298.1329310398233</v>
+        <v>369.7822608657444</v>
       </c>
       <c r="AB2" t="n">
-        <v>407.9186289453341</v>
+        <v>505.9524029585028</v>
       </c>
       <c r="AC2" t="n">
-        <v>368.9874475161821</v>
+        <v>457.6650157288</v>
       </c>
       <c r="AD2" t="n">
-        <v>298132.9310398233</v>
+        <v>369782.2608657444</v>
       </c>
       <c r="AE2" t="n">
-        <v>407918.6289453341</v>
+        <v>505952.4029585028</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.478695955197905e-06</v>
+        <v>2.843587157226364e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.10243055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>368987.4475161821</v>
+        <v>457665.0157288</v>
       </c>
     </row>
     <row r="3">
@@ -19014,28 +19014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>280.9638727308098</v>
+        <v>352.6984539027515</v>
       </c>
       <c r="AB3" t="n">
-        <v>384.427165921547</v>
+        <v>482.5775845873649</v>
       </c>
       <c r="AC3" t="n">
-        <v>347.7379767529098</v>
+        <v>436.5210572162399</v>
       </c>
       <c r="AD3" t="n">
-        <v>280963.8727308098</v>
+        <v>352698.4539027514</v>
       </c>
       <c r="AE3" t="n">
-        <v>384427.165921547</v>
+        <v>482577.5845873649</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.512020921542419e-06</v>
+        <v>2.907672303316845e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.74652777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>347737.9767529098</v>
+        <v>436521.0572162399</v>
       </c>
     </row>
   </sheetData>
@@ -19311,28 +19311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>255.9811857752921</v>
+        <v>331.5144456716474</v>
       </c>
       <c r="AB2" t="n">
-        <v>350.2447514704801</v>
+        <v>453.5926899530841</v>
       </c>
       <c r="AC2" t="n">
-        <v>316.817883961838</v>
+        <v>410.3024402452997</v>
       </c>
       <c r="AD2" t="n">
-        <v>255981.1857752921</v>
+        <v>331514.4456716474</v>
       </c>
       <c r="AE2" t="n">
-        <v>350244.7514704801</v>
+        <v>453592.6899530841</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.509756732174058e-06</v>
+        <v>3.114023211205042e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.92708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>316817.883961838</v>
+        <v>410302.4402452997</v>
       </c>
     </row>
   </sheetData>
@@ -19608,28 +19608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>536.3581540581424</v>
+        <v>635.3751624139957</v>
       </c>
       <c r="AB2" t="n">
-        <v>733.8688888340965</v>
+        <v>869.3483279886827</v>
       </c>
       <c r="AC2" t="n">
-        <v>663.829472075224</v>
+        <v>786.3789437034835</v>
       </c>
       <c r="AD2" t="n">
-        <v>536358.1540581424</v>
+        <v>635375.1624139957</v>
       </c>
       <c r="AE2" t="n">
-        <v>733868.8888340965</v>
+        <v>869348.3279886828</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.066748097977817e-06</v>
+        <v>1.874234327307298e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.03472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>663829.4720752239</v>
+        <v>786378.9437034836</v>
       </c>
     </row>
     <row r="3">
@@ -19714,28 +19714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>406.6508692426819</v>
+        <v>495.7575621197968</v>
       </c>
       <c r="AB3" t="n">
-        <v>556.3976594680357</v>
+        <v>678.3173677723501</v>
       </c>
       <c r="AC3" t="n">
-        <v>503.2958477574253</v>
+        <v>613.5797102165612</v>
       </c>
       <c r="AD3" t="n">
-        <v>406650.8692426819</v>
+        <v>495757.5621197968</v>
       </c>
       <c r="AE3" t="n">
-        <v>556397.6594680357</v>
+        <v>678317.3677723501</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.27510002858447e-06</v>
+        <v>2.240300450362956e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.76215277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>503295.8477574253</v>
+        <v>613579.7102165612</v>
       </c>
     </row>
     <row r="4">
@@ -19820,28 +19820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>363.6392963436332</v>
+        <v>442.9211041051323</v>
       </c>
       <c r="AB4" t="n">
-        <v>497.5473278908824</v>
+        <v>606.0241949366709</v>
       </c>
       <c r="AC4" t="n">
-        <v>450.0621092290364</v>
+        <v>548.186096332214</v>
       </c>
       <c r="AD4" t="n">
-        <v>363639.2963436332</v>
+        <v>442921.1041051323</v>
       </c>
       <c r="AE4" t="n">
-        <v>497547.3278908824</v>
+        <v>606024.1949366709</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.355826246292046e-06</v>
+        <v>2.382133230405436e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.76388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>450062.1092290364</v>
+        <v>548186.096332214</v>
       </c>
     </row>
     <row r="5">
@@ -19926,28 +19926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>347.5334108051232</v>
+        <v>426.6446263660301</v>
       </c>
       <c r="AB5" t="n">
-        <v>475.5105447555706</v>
+        <v>583.7540000265122</v>
       </c>
       <c r="AC5" t="n">
-        <v>430.1284857473393</v>
+        <v>528.0413375678659</v>
       </c>
       <c r="AD5" t="n">
-        <v>347533.4108051232</v>
+        <v>426644.6263660301</v>
       </c>
       <c r="AE5" t="n">
-        <v>475510.5447555706</v>
+        <v>583754.0000265122</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.386920242316648e-06</v>
+        <v>2.436764154831679e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.40798611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>430128.4857473393</v>
+        <v>528041.3375678658</v>
       </c>
     </row>
     <row r="6">
@@ -20032,28 +20032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>346.8084269356483</v>
+        <v>425.9196424965552</v>
       </c>
       <c r="AB6" t="n">
-        <v>474.5185898413241</v>
+        <v>582.7620451122656</v>
       </c>
       <c r="AC6" t="n">
-        <v>429.231201617891</v>
+        <v>527.1440534384175</v>
       </c>
       <c r="AD6" t="n">
-        <v>346808.4269356483</v>
+        <v>425919.6424965552</v>
       </c>
       <c r="AE6" t="n">
-        <v>474518.5898413241</v>
+        <v>582762.0451122656</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.389308300601989e-06</v>
+        <v>2.440959879035436e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.38194444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>429231.201617891</v>
+        <v>527144.0534384175</v>
       </c>
     </row>
   </sheetData>
@@ -20329,28 +20329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>670.8390871320933</v>
+        <v>783.5908102826439</v>
       </c>
       <c r="AB2" t="n">
-        <v>917.8716343459211</v>
+        <v>1072.143516215465</v>
       </c>
       <c r="AC2" t="n">
-        <v>830.2712538048755</v>
+        <v>969.8196437907357</v>
       </c>
       <c r="AD2" t="n">
-        <v>670839.0871320933</v>
+        <v>783590.8102826439</v>
       </c>
       <c r="AE2" t="n">
-        <v>917871.6343459211</v>
+        <v>1072143.516215465</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.218595629259913e-07</v>
+        <v>1.576277118365418e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>830271.2538048755</v>
+        <v>969819.6437907356</v>
       </c>
     </row>
     <row r="3">
@@ -20435,28 +20435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>486.0408039316973</v>
+        <v>588.4491899467097</v>
       </c>
       <c r="AB3" t="n">
-        <v>665.0224705462753</v>
+        <v>805.1421422311458</v>
       </c>
       <c r="AC3" t="n">
-        <v>601.5536593222376</v>
+        <v>728.3005062006985</v>
       </c>
       <c r="AD3" t="n">
-        <v>486040.8039316973</v>
+        <v>588449.1899467097</v>
       </c>
       <c r="AE3" t="n">
-        <v>665022.4705462753</v>
+        <v>805142.1422311459</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.153854638994066e-06</v>
+        <v>1.9729628443548e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.84722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>601553.6593222376</v>
+        <v>728300.5062006984</v>
       </c>
     </row>
     <row r="4">
@@ -20541,28 +20541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>436.0199441493918</v>
+        <v>528.2557642465601</v>
       </c>
       <c r="AB4" t="n">
-        <v>596.581723427537</v>
+        <v>722.7828416416787</v>
       </c>
       <c r="AC4" t="n">
-        <v>539.6448010513199</v>
+        <v>653.8014616674858</v>
       </c>
       <c r="AD4" t="n">
-        <v>436019.9441493918</v>
+        <v>528255.7642465602</v>
       </c>
       <c r="AE4" t="n">
-        <v>596581.723427537</v>
+        <v>722782.8416416787</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.243269655018259e-06</v>
+        <v>2.125852557132587e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.5625</v>
       </c>
       <c r="AH4" t="n">
-        <v>539644.8010513198</v>
+        <v>653801.4616674858</v>
       </c>
     </row>
     <row r="5">
@@ -20647,28 +20647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>402.2065738650927</v>
+        <v>494.3570531076896</v>
       </c>
       <c r="AB5" t="n">
-        <v>550.3167784639439</v>
+        <v>676.401129555888</v>
       </c>
       <c r="AC5" t="n">
-        <v>497.795317501794</v>
+        <v>611.8463550860212</v>
       </c>
       <c r="AD5" t="n">
-        <v>402206.5738650927</v>
+        <v>494357.0531076896</v>
       </c>
       <c r="AE5" t="n">
-        <v>550316.778463944</v>
+        <v>676401.129555888</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.291096843212679e-06</v>
+        <v>2.207631718968623e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.95486111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>497795.317501794</v>
+        <v>611846.3550860211</v>
       </c>
     </row>
     <row r="6">
@@ -20753,28 +20753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>383.6188823833842</v>
+        <v>465.6821365627086</v>
       </c>
       <c r="AB6" t="n">
-        <v>524.8842789475971</v>
+        <v>637.1668436910098</v>
       </c>
       <c r="AC6" t="n">
-        <v>474.7900600445499</v>
+        <v>576.3565343984208</v>
       </c>
       <c r="AD6" t="n">
-        <v>383618.8823833842</v>
+        <v>465682.1365627086</v>
       </c>
       <c r="AE6" t="n">
-        <v>524884.278947597</v>
+        <v>637166.8436910098</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.323527282826654e-06</v>
+        <v>2.263084156582641e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>474790.0600445499</v>
+        <v>576356.5343984207</v>
       </c>
     </row>
     <row r="7">
@@ -20859,28 +20859,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>375.223485021635</v>
+        <v>457.1161470003673</v>
       </c>
       <c r="AB7" t="n">
-        <v>513.3973258984603</v>
+        <v>625.446478867026</v>
       </c>
       <c r="AC7" t="n">
-        <v>464.3994056723829</v>
+        <v>565.7547447436027</v>
       </c>
       <c r="AD7" t="n">
-        <v>375223.485021635</v>
+        <v>457116.1470003673</v>
       </c>
       <c r="AE7" t="n">
-        <v>513397.3258984602</v>
+        <v>625446.478867026</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.334345337299202e-06</v>
+        <v>2.281581824140793e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.43402777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>464399.4056723829</v>
+        <v>565754.7447436027</v>
       </c>
     </row>
     <row r="8">
@@ -20965,28 +20965,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>376.156801263392</v>
+        <v>458.0494632421243</v>
       </c>
       <c r="AB8" t="n">
-        <v>514.6743303554387</v>
+        <v>626.7234833240045</v>
       </c>
       <c r="AC8" t="n">
-        <v>465.5545346162743</v>
+        <v>566.9098736874942</v>
       </c>
       <c r="AD8" t="n">
-        <v>376156.801263392</v>
+        <v>458049.4632421242</v>
       </c>
       <c r="AE8" t="n">
-        <v>514674.3303554386</v>
+        <v>626723.4833240046</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.334440232513873e-06</v>
+        <v>2.281744084382531e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.43402777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>465554.5346162743</v>
+        <v>566909.8736874942</v>
       </c>
     </row>
   </sheetData>
@@ -21262,28 +21262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>257.6690067576322</v>
+        <v>330.8251116123401</v>
       </c>
       <c r="AB2" t="n">
-        <v>352.5541025999232</v>
+        <v>452.6495126818676</v>
       </c>
       <c r="AC2" t="n">
-        <v>318.9068338606826</v>
+        <v>409.4492784890904</v>
       </c>
       <c r="AD2" t="n">
-        <v>257669.0067576322</v>
+        <v>330825.1116123401</v>
       </c>
       <c r="AE2" t="n">
-        <v>352554.1025999231</v>
+        <v>452649.5126818676</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.438281835837567e-06</v>
+        <v>3.082900433094325e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.39409722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>318906.8338606826</v>
+        <v>409449.2784890904</v>
       </c>
     </row>
   </sheetData>
@@ -21559,28 +21559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>380.9640298914406</v>
+        <v>465.197633466563</v>
       </c>
       <c r="AB2" t="n">
-        <v>521.2517926442943</v>
+        <v>636.5039251800954</v>
       </c>
       <c r="AC2" t="n">
-        <v>471.5042531358077</v>
+        <v>575.7568838997761</v>
       </c>
       <c r="AD2" t="n">
-        <v>380964.0298914406</v>
+        <v>465197.6334665631</v>
       </c>
       <c r="AE2" t="n">
-        <v>521251.7926442942</v>
+        <v>636503.9251800954</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.298272161991709e-06</v>
+        <v>2.391978870673371e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.47395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>471504.2531358077</v>
+        <v>575756.883899776</v>
       </c>
     </row>
     <row r="3">
@@ -21665,28 +21665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>309.8957503091808</v>
+        <v>384.9217021098159</v>
       </c>
       <c r="AB3" t="n">
-        <v>424.0130372086302</v>
+        <v>526.6668543736507</v>
       </c>
       <c r="AC3" t="n">
-        <v>383.5458280434731</v>
+        <v>476.4025089738014</v>
       </c>
       <c r="AD3" t="n">
-        <v>309895.7503091808</v>
+        <v>384921.7021098159</v>
       </c>
       <c r="AE3" t="n">
-        <v>424013.0372086302</v>
+        <v>526666.8543736507</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.46110160338784e-06</v>
+        <v>2.691981131174416e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.52083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>383545.8280434731</v>
+        <v>476402.5089738014</v>
       </c>
     </row>
     <row r="4">
@@ -21771,28 +21771,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>308.1032483278361</v>
+        <v>382.958607927879</v>
       </c>
       <c r="AB4" t="n">
-        <v>421.5604569181481</v>
+        <v>523.9808623083217</v>
       </c>
       <c r="AC4" t="n">
-        <v>381.3273185736965</v>
+        <v>473.9728642213738</v>
       </c>
       <c r="AD4" t="n">
-        <v>308103.248327836</v>
+        <v>382958.607927879</v>
       </c>
       <c r="AE4" t="n">
-        <v>421560.4569181481</v>
+        <v>523980.8623083216</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.466065915625527e-06</v>
+        <v>2.701127541555546e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.46875</v>
       </c>
       <c r="AH4" t="n">
-        <v>381327.3185736965</v>
+        <v>473972.8642213738</v>
       </c>
     </row>
   </sheetData>
@@ -22068,28 +22068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>465.0014618481285</v>
+        <v>562.0537634025807</v>
       </c>
       <c r="AB2" t="n">
-        <v>636.2355145172721</v>
+        <v>769.0267551494345</v>
       </c>
       <c r="AC2" t="n">
-        <v>575.5140899738958</v>
+        <v>695.6319209738015</v>
       </c>
       <c r="AD2" t="n">
-        <v>465001.4618481285</v>
+        <v>562053.7634025806</v>
       </c>
       <c r="AE2" t="n">
-        <v>636235.5145172721</v>
+        <v>769026.7551494346</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.149662340675265e-06</v>
+        <v>2.053787871235497e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.99305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>575514.0899738958</v>
+        <v>695631.9209738015</v>
       </c>
     </row>
     <row r="3">
@@ -22174,28 +22174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>371.1005242090553</v>
+        <v>448.7253867902538</v>
       </c>
       <c r="AB3" t="n">
-        <v>507.7561090224949</v>
+        <v>613.965870573334</v>
       </c>
       <c r="AC3" t="n">
-        <v>459.2965786175621</v>
+        <v>555.3698295923255</v>
       </c>
       <c r="AD3" t="n">
-        <v>371100.5242090553</v>
+        <v>448725.3867902537</v>
       </c>
       <c r="AE3" t="n">
-        <v>507756.1090224949</v>
+        <v>613965.8705733339</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.346102610648857e-06</v>
+        <v>2.404714077670182e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.22395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>459296.5786175621</v>
+        <v>555369.8295923255</v>
       </c>
     </row>
     <row r="4">
@@ -22280,28 +22280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>333.9692758339148</v>
+        <v>411.5087975605416</v>
       </c>
       <c r="AB4" t="n">
-        <v>456.9514968805617</v>
+        <v>563.0444913092028</v>
       </c>
       <c r="AC4" t="n">
-        <v>413.3406873537339</v>
+        <v>509.3083152965585</v>
       </c>
       <c r="AD4" t="n">
-        <v>333969.2758339148</v>
+        <v>411508.7975605415</v>
       </c>
       <c r="AE4" t="n">
-        <v>456951.4968805617</v>
+        <v>563044.4913092029</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.414274352437619e-06</v>
+        <v>2.526497919319304e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.44270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>413340.6873537339</v>
+        <v>509308.3152965585</v>
       </c>
     </row>
     <row r="5">
@@ -22386,28 +22386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>331.1346845186013</v>
+        <v>408.6742062452281</v>
       </c>
       <c r="AB5" t="n">
-        <v>453.0730839896068</v>
+        <v>559.166078418248</v>
       </c>
       <c r="AC5" t="n">
-        <v>409.8324247457052</v>
+        <v>505.8000526885297</v>
       </c>
       <c r="AD5" t="n">
-        <v>331134.6845186013</v>
+        <v>408674.2062452281</v>
       </c>
       <c r="AE5" t="n">
-        <v>453073.0839896068</v>
+        <v>559166.0784182481</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.420739347876627e-06</v>
+        <v>2.538047161866841e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.37326388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>409832.4247457052</v>
+        <v>505800.0526885297</v>
       </c>
     </row>
   </sheetData>
